--- a/DATA_goal/Junction_Flooding_166.xlsx
+++ b/DATA_goal/Junction_Flooding_166.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41598.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.41</v>
+        <v>2.84</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.11</v>
+        <v>2.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.62</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>150.56</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.22</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41598.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.82</v>
+        <v>2.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.9</v>
+        <v>4.99</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.03</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>66.84</v>
+        <v>6.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.95</v>
+        <v>2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.4</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>266.22</v>
+        <v>26.62</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.22</v>
+        <v>5.02</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.47</v>
+        <v>3.35</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.35</v>
+        <v>3.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.87</v>
+        <v>2.09</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.17</v>
+        <v>6.12</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41598.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.57</v>
+        <v>3.76</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>126.6</v>
+        <v>12.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.73</v>
+        <v>2.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.54</v>
+        <v>3.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41598.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.82</v>
+        <v>2.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>99.11</v>
+        <v>9.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.45</v>
+        <v>0.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41598.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.52</v>
-      </c>
       <c r="H6" s="4" t="n">
-        <v>29.76</v>
+        <v>2.98</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>108.26</v>
+        <v>10.83</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41598.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>31.16</v>
+        <v>3.12</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>113.99</v>
+        <v>11.4</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>28.37</v>
+        <v>2.84</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41598.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.51</v>
+        <v>1.75</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.25</v>
+        <v>3.83</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.26</v>
+        <v>3.13</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>51.9</v>
+        <v>5.19</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.59</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>202.12</v>
+        <v>20.21</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.44</v>
+        <v>3.84</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>25.87</v>
+        <v>2.59</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>25.54</v>
+        <v>2.55</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>47.14</v>
+        <v>4.71</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41598.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.95</v>
+        <v>0.7</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25.3</v>
+        <v>2.53</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>76.25</v>
+        <v>7.62</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41598.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>41.6</v>
+        <v>4.16</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>34.1</v>
+        <v>3.41</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>55.67</v>
+        <v>5.57</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>220.43</v>
+        <v>22.04</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>41.77</v>
+        <v>4.18</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>50.44</v>
+        <v>5.04</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_166.xlsx
+++ b/DATA_goal/Junction_Flooding_166.xlsx
@@ -448,16 +448,16 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44847.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44847.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.78</v>
+        <v>27.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.28</v>
+        <v>112.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.2</v>
+        <v>22.04</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.57</v>
+        <v>25.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44847.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.8</v>
+        <v>28.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.72</v>
+        <v>147.18</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.84</v>
+        <v>28.36</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.84</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.61</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.57</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.5</v>
+        <v>35.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44847.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.69</v>
+        <v>46.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.6</v>
+        <v>26.04</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.02</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.73</v>
+        <v>47.28</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.17</v>
+        <v>31.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.85</v>
+        <v>58.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_166.xlsx
+++ b/DATA_goal/Junction_Flooding_166.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44847.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44847.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.42</v>
+        <v>7.422</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.58</v>
+        <v>21.577</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.32</v>
+        <v>17.319</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.18</v>
+        <v>7.179</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.76</v>
+        <v>27.758</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.99</v>
+        <v>11.987</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.73</v>
+        <v>7.728</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.6</v>
+        <v>8.602</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.488</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>3.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.806</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.743</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.231</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.83</v>
+        <v>112.833</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.04</v>
+        <v>22.037</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.4</v>
+        <v>14.397</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.07</v>
+        <v>8.068</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.065</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.171</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.14</v>
+        <v>6.138</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.05</v>
+        <v>6.051</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.2</v>
+        <v>7.198</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.74</v>
+        <v>9.743</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>25.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.43</v>
+        <v>4.432</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.81</v>
+        <v>8.808999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,76 +863,76 @@
         <v>44847.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.77</v>
+        <v>12.775</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.613</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.68</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.03</v>
+        <v>28.026</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.75</v>
+        <v>22.749</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>9.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.18</v>
+        <v>38.175</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.54</v>
+        <v>15.536</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.33</v>
+        <v>7.332</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.155</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.2</v>
+        <v>11.203</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.12</v>
+        <v>12.118</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.64</v>
+        <v>3.636</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.17</v>
+        <v>14.168</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.59</v>
+        <v>8.585000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.18</v>
+        <v>147.176</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.36</v>
+        <v>28.365</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.84</v>
+        <v>18.839</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.25</v>
+        <v>10.254</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.345</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>19.61</v>
@@ -941,25 +941,25 @@
         <v>8.07</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.57</v>
+        <v>7.568</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.93</v>
+        <v>8.930999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.21</v>
+        <v>12.205</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.01</v>
+        <v>35.012</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.54</v>
+        <v>5.539</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.51</v>
+        <v>11.507</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44847.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>70.54000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_166.xlsx
+++ b/DATA_goal/Junction_Flooding_166.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,29 +448,29 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44847.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.47</v>
+        <v>21.468</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>16.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.903</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.91</v>
+        <v>46.911</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.44</v>
+        <v>38.436</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.58</v>
+        <v>16.585</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.09999999999999</v>
+        <v>64.098</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.04</v>
+        <v>26.042</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12</v>
+        <v>11.998</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.24</v>
+        <v>17.238</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.79</v>
+        <v>18.791</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.08</v>
+        <v>20.081</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.73</v>
+        <v>5.727</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.93</v>
+        <v>23.927</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.17</v>
+        <v>14.166</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.2</v>
+        <v>250.197</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.28</v>
+        <v>47.283</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.75</v>
+        <v>31.747</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.16</v>
+        <v>32.162</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.64</v>
+        <v>13.637</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.35</v>
+        <v>12.349</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.54</v>
+        <v>14.539</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.06</v>
+        <v>20.057</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.45</v>
+        <v>58.455</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.06</v>
+        <v>9.058</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.37</v>
+        <v>19.366</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44847.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>70.54000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>267.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_166.xlsx
+++ b/DATA_goal/Junction_Flooding_166.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,29 +448,29 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44847.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.468</v>
+        <v>21.47</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>16.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.911</v>
+        <v>46.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.436</v>
+        <v>38.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.585</v>
+        <v>16.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.098</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.042</v>
+        <v>26.04</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.998</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.238</v>
+        <v>17.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.791</v>
+        <v>18.79</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.081</v>
+        <v>20.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.727</v>
+        <v>5.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.918</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.927</v>
+        <v>23.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.166</v>
+        <v>14.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.197</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.283</v>
+        <v>47.28</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.616</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.747</v>
+        <v>31.75</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.226</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.162</v>
+        <v>32.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.637</v>
+        <v>13.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.349</v>
+        <v>12.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.539</v>
+        <v>14.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.057</v>
+        <v>20.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.455</v>
+        <v>58.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.058</v>
+        <v>9.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.366</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44847.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>70.54000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.7</v>
+        <v>19.37</v>
       </c>
     </row>
   </sheetData>
